--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_12.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700187.3306808</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700188.7041066</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700187.3306808.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700188.7041066.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>11.911</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>11.915</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700189.0237043</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700189.122163</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700189.0237043.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700189.122163.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>11.931</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>11.911</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.02000000000000135</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700189.8239772</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700190.0761266</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700189.8239772.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700190.0761266.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>11.909</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>11.918</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.008999999999998565</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700190.4422424</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700193.1877954</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700190.4422424.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700193.1877954.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>11.935</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>11.958</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.02299999999999969</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700193.7648475</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700194.2782247</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700193.7648475.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700194.2782247.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>11.97</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>11.962</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700194.620497</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700195.225079</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700194.620497.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700195.225079.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>11.953</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>11.956</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -851,44 +903,50 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700196.332812</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731700196.332812.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731700196.332812.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>11.964</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.964</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>12.009</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.04499999999999993</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -949,19 +1007,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0210000000000008</v>
+        <v>-0.02400000000000091</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003000000000000114</v>
+        <v>-0.003428571428571558</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1899999999999999</v>
+        <v>-0.1900000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="3">
